--- a/DOM_Banner/output/dept_banner/Sao Jiralerspong_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Sao Jiralerspong_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,528 +360,246 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>authors_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>author</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ab</t>
+          <t>publication_date</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>publication_date</t>
+          <t>so</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>so</t>
+          <t>host_organization</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>so_id</t>
+          <t>url</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>host_organization</t>
+          <t>license</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>issn_l</t>
+          <t>version</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>oa_status</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>pdf_url</t>
+          <t>language</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>license</t>
+          <t>cited_by_count</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>version</t>
+          <t>publication_year</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>first_page</t>
+          <t>pmid</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>last_page</t>
+          <t>doi</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>issue</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa_anywhere</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>oa_status</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>oa_url</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>any_repository_has_fulltext</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>language</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>grants</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_count</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>publication_year</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_api_url</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>ids</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>doi</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
           <t>type</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>referenced_works</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>related_works</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>is_paratext</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>is_retracted</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Jessica A. Martinez, Mihra S. Taljanovic, Andres A. Nuncio Zuniga, Betsy C. Wertheim, Denise J. Roe, Sima Ehsani, Sao Jiralerspong, Jennifer Segar, Pavani Chalasani</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4214719326</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Feasibility Trial to Evaluate Tendon Stiffness Obtained from Shear Wave Elastography Imaging as a Biomarker of Aromatase Inhibitor-Induced Arthralgias</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5008616254", "https://openalex.org/A5037229454", "https://openalex.org/A5059763125", "https://openalex.org/A5055132722", "https://openalex.org/A5016715621", "https://openalex.org/A5063885990", "https://openalex.org/A5045317216", "https://openalex.org/A5040917850", "https://openalex.org/A5082690204"), au_display_name = c("Jessica A. Martinez", "Mihra S. Taljanovic", "Andres A. Nuncio Zuniga", "Betsy C. Wertheim", "Denise J. Roe", "Sima Ehsani", "Sao Jiralerspong", 
-"Jennifer Segar", "Pavani Chalasani"), au_orcid = c("https://orcid.org/0000-0001-5811-1019", "https://orcid.org/0000-0003-1910-6545", NA, "https://orcid.org/0000-0003-3679-7405", "https://orcid.org/0000-0001-6989-6579", NA, NA, "https://orcid.org/0000-0002-6345-2093", "https://orcid.org/0000-0002-7953-2979"), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("Department of Nutritional Sciences, University of Arizona, Tucson, AZ 85719, USA.", 
-"Department of Medical Imaging and Orthopaedic Surgery, University of Arizona, Tucson, AZ 85719, USA; Department of Radiology, University of New Mexico, Albuquerque, NM 87131, USA", "Department of Biomedical Engineering, University of Arizona, Tucson, AZ 85719, USA", "The University of Arizona Cancer Center, Tucson, AZ 85719, USA", "The University of Arizona Cancer Center, Tucson, AZ 85719, USA", "The University of Arizona Cancer Center, Tucson, AZ 85719, USA", "The University of Arizona Cancer Center, Tucson, AZ 85719, USA", 
-"The University of Arizona Cancer Center, Tucson, AZ 85719, USA", "The University of Arizona Cancer Center, Tucson, AZ 85719, USA"), institution_id = c("https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243"), institution_display_name = c("University of Arizona", 
-"University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona"), institution_ror = c("https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45"), institution_country_code = c("US", 
-"US", "US", "US", "US", "US", "US", "US", "US"), institution_type = c("education", "education", "education", "education", "education", "education", "education", "education", "education"), institution_lineage = c("https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", 
-"https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960"))</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Aromatase inhibitor-induced arthralgia (AIA) comprises significant, activity-limiting musculoskeletal symptoms, including joint pain, myalgia, and joint stiffness. We conducted a prospective feasibility study in postmenopausal women diagnosed with early-stage (0-3) hormone receptor positive (HR+) breast cancer who were candidates for treatment with adjuvant AI therapy (n = 16). Tendons of the hands and wrists and the median nerve were imaged using gray-scale and power Doppler ultrasound (US) and US SWE. Arthralgia symptoms were evaluated using the Breast Cancer Prevention Trial (BCPT) Symptom Checklist musculoskeletal subscale (MS) and the Western Ontario and McMaster Universities Osteoarthritis Index (WOMAC) pain and stiffness subscales. At baseline, there were significant differences in the SW velocities of tendons between dominant and nondominant hands. Increased velocity in 2 of 6 tendons and the median nerve was associated with greater pain at baseline, whereas slower velocity of the extensor digitorum tendon (suggesting decreased stiffness) was associated with a higher WOMAC stiffness score. Increased SW velocity (suggestive of increased stiffness) at baseline in the abductor pollicis longus tendon was associated with a worsening of all three pain and stiffness measures by 6 months. Future studies should evaluate SWE scores related to AIA outcomes in a larger sample size.</t>
+          <t>2022-02-18</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2022-02-18</t>
+          <t>Journal of Clinical Medicine</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Journal of Clinical Medicine</t>
+          <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://openalex.org/S2737969411</t>
+          <t>https://doi.org/10.3390/jcm11041067</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Multidisciplinary Digital Publishing Institute</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2077-0383</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/35207339</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>https://doi.org/10.3390/jcm11041067</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>https://www.mdpi.com/2077-0383/11/4/1067/pdf?version=1645427206</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>cc-by</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>1067</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>1067</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>gold</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>https://www.mdpi.com/2077-0383/11/4/1067/pdf?version=1645427206</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4214719326</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4214719326", doi = "https://doi.org/10.3390/jcm11041067", pmid = "https://pubmed.ncbi.nlm.nih.gov/35207339")</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.3390/jcm11041067</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W1861000319", "https://openalex.org/W1903233379", "https://openalex.org/W1963735494", "https://openalex.org/W1975541600", "https://openalex.org/W1977708978", "https://openalex.org/W1982278426", "https://openalex.org/W1998640993", "https://openalex.org/W2030311483", "https://openalex.org/W2037476877", "https://openalex.org/W2061844180", "https://openalex.org/W2086105467", "https://openalex.org/W2098236961", "https://openalex.org/W2108027219", "https://openalex.org/W2110280396", 
-"https://openalex.org/W2115776903", "https://openalex.org/W2121656289", "https://openalex.org/W2124547747", "https://openalex.org/W2138301087", "https://openalex.org/W2152142465", "https://openalex.org/W2171213575", "https://openalex.org/W2173270165", "https://openalex.org/W2272913964", "https://openalex.org/W2274722622", "https://openalex.org/W2293531483", "https://openalex.org/W2295841948", "https://openalex.org/W2409054761", "https://openalex.org/W2570602961", "https://openalex.org/W2605169409", 
-"https://openalex.org/W2613669501", "https://openalex.org/W2749627530", "https://openalex.org/W2811247972", "https://openalex.org/W2923095933", "https://openalex.org/W2960904227", "https://openalex.org/W3033488912", "https://openalex.org/W3135589666", "https://openalex.org/W3176894620", "https://openalex.org/W3217322592")</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W2095773979", "https://openalex.org/W4317104327", "https://openalex.org/W1985286937", "https://openalex.org/W3092039494", "https://openalex.org/W2079542119", "https://openalex.org/W2045407791", "https://openalex.org/W4214715883", "https://openalex.org/W4312398015", "https://openalex.org/W2377248513", "https://openalex.org/W2322423563")</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Preethika Potluri, Emma Elizabeth Paul, Jennifer Segar, Sima Ehsani, Sao Jiralerspong, Denise J. Roe, Pavani Chalasani</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4298139650</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Investigating keratinocyte growth factor hair serum for the prevention of chemotherapy-induced alopecia.</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5035111760", "https://openalex.org/A5031171000", "https://openalex.org/A5040917850", "https://openalex.org/A5063885990", "https://openalex.org/A5045317216", "https://openalex.org/A5016715621", "https://openalex.org/A5082690204"), au_display_name = c("Preethika Potluri", "Emma Elizabeth Paul", "Jennifer Segar", "Sima Ehsani", "Sao Jiralerspong", "Denise J. Roe", "Pavani Chalasani"), au_orcid = c(NA, NA, "https://orcid.org/0000-0002-6345-2093", NA, NA, "https://orcid.org/0000-0001-6989-6579", 
-"https://orcid.org/0000-0002-7953-2979"), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("Baylor University, Waco, TX;", "University of Arizona Cancer Center, Tucson, AZ;", "University of Arizona Comprehensive Cancer Center, Tucson, AZ;", "University of Arizona Cancer Center, Tucson, AZ;", "University of Arizona Cancer Center, Tucson, AZ;", "University of Arizona Cancer Center, Tucson, AZ;", "University of Arizona Cancer Center, Tucson, AZ;"
-), institution_id = c("https://openalex.org/I157394403", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243"), institution_display_name = c("Baylor University", "University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona"), institution_ror = c("https://ror.org/005781934", 
-"https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45"), institution_country_code = c("US", "US", "US", "US", "US", "US", "US"), institution_type = c("education", "education", "education", "education", "education", "education", "education"), institution_lineage = c("https://openalex.org/I157394403", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", 
-"https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960"))</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>240 Background: Chemotherapy induced alopecia (CIA) is known to have a significant psychological and quality of life impact, mainly in women. While cold caps have been shown to decrease CIA, expense, availability, and extension of treatment durations are barriers for routine clinical use. Keratinocyte Growth Factor (KGF) has been shown to have cytoprotective effects on human keratinocytes in vitro and reduce apoptosis in human hair follicles. Based on this data, we hypothesized that KGF-Hair serum (KGF-HS) will prevent CIA in women undergoing chemotherapy as treatment for breast cancer. Methods: We designed a Simon 2-stage prospective study to test our hypothesis. Study was approved by our institutional review board and registered on clinicaltrials.gov (NCT04554732). In part 1 we planned to enroll 20 patients into a single arm. If ≥ 4 responses are noted, we proposed to initiate part 2: randomized double-blind placebo-controlled study. Patients with early-stage breast cancer (ESBC) who were scheduled to get at least 4 cycles of anthracycline or taxane based chemotherapy were included. Patients with inflammatory scalp conditions, hair loss disorder, scalp disorders were excluded. The primary endpoint was successful hair preservation using the Common Terminology Criteria for Adverse Events 4.0 scale at the end of 4 cycles of chemotherapy. Secondary end points included wig use and scores on the European Organization for Research and Treatment of Cancer Quality of Life Questionnaire–Core 30, Hospital Anxiety and Depression Scale, and a summary scale of the Body Image Scale. Results: Twenty patients completed part 1 of the study and were evaluable for primary endpoint. Mean age was 60 years and 70% were treated with taxane based chemotherapy. Successful hair preservation was noted in 0 of 20 women. Mean duration of treatment with KGF-HS was 4.6wks (range 2-10 weeks) before women came off study due to grade 2 hair loss. There were no statistically significant differences in changes in any of the scales of quality of life from baseline to end of treatment. There were only 2 grade 1 events (1 rash and 1 itching) reported which resolved after coming off the KGF-HS. There were no serious adverse device events. Conclusions: Among women with early-stage breast cancer receiving chemotherapy with a taxane, anthracycline, or both, using KGF-HS did not prevent CIA. Further research is needed to investigated other novel topical options to prevent CIA. Clinical trial information: NCT04554732.</t>
+          <t>2022-10-01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2022-10-01</t>
+          <t>Journal of Clinical Oncology</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Journal of Clinical Oncology</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://openalex.org/S15137598</t>
+          <t>https://doi.org/10.1200/jco.2022.40.28_suppl.240</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Lippincott Williams &amp; Wilkins</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0732-183X</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1200/jco.2022.40.28_suppl.240</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>28_suppl</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4298139650</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4298139650", doi = "https://doi.org/10.1200/jco.2022.40.28_suppl.240")</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1200/jco.2022.40.28_suppl.240</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W3030794620", "https://openalex.org/W3025960409", "https://openalex.org/W2917711479", "https://openalex.org/W2282455880", "https://openalex.org/W2909573419", "https://openalex.org/W3190241038", "https://openalex.org/W2116955239", "https://openalex.org/W44503468", "https://openalex.org/W2737057238", "https://openalex.org/W3020102117")</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>

--- a/DOM_Banner/output/dept_banner/Sao Jiralerspong_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Sao Jiralerspong_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Department of Nutritional Sciences, University of Arizona, Tucson, AZ 85719, USA.; Department of Medical Imaging and Orthopaedic Surgery, University of Arizona, Tucson, AZ 85719, USA; Department of Radiology, University of New Mexico, Albuquerque, NM 87131, USA; Department of Biomedical Engineering, University of Arizona, Tucson, AZ 85719, USA; The University of Arizona Cancer Center, Tucson, AZ 85719, USA; The University of Arizona Cancer Center, Tucson, AZ 85719, USA; The University of Arizona Cancer Center, Tucson, AZ 85719, USA; The University of Arizona Cancer Center, Tucson, AZ 85719, USA; The University of Arizona Cancer Center, Tucson, AZ 85719, USA; The University of Arizona Cancer Center, Tucson, AZ 85719, USA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4214719326</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Feasibility Trial to Evaluate Tendon Stiffness Obtained from Shear Wave Elastography Imaging as a Biomarker of Aromatase Inhibitor-Induced Arthralgias</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-02-18</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Journal of Clinical Medicine</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/jcm11041067</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35207339</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/jcm11041067</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Baylor University, Waco, TX;; University of Arizona Cancer Center, Tucson, AZ;; University of Arizona Comprehensive Cancer Center, Tucson, AZ;; University of Arizona Cancer Center, Tucson, AZ;; University of Arizona Cancer Center, Tucson, AZ;; University of Arizona Cancer Center, Tucson, AZ;; University of Arizona Cancer Center, Tucson, AZ;</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4298139650</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Investigating keratinocyte growth factor hair serum for the prevention of chemotherapy-induced alopecia.</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-10-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Journal of Clinical Oncology</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2022.40.28_suppl.240</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2022.40.28_suppl.240</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
